--- a/DbLayouts/L5-管理性作業/InnReCheck.xlsx
+++ b/DbLayouts/L5-管理性作業/InnReCheck.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5B970F-5F53-4E41-8748-B1145088CE15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="SP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -314,6 +313,14 @@
   </si>
   <si>
     <t>YearMonth,ConditionCode,CustNo,FacmNo asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">YearMonth &gt;= ,AND YearMonth &lt;= ,AND CustNo &gt;= ,AND CustNo &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findYearMonth</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -322,23 +329,41 @@
 03-個金2000萬以上小於3000萬
 04-個金100萬以上小於2000萬
 05-企金未達3000萬
-06-土地追蹤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">YearMonth &gt;= ,AND YearMonth &lt;= ,AND CustNo &gt;= ,AND CustNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findYearMonth</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+06-土地追蹤
+99-指定複審名單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定複審名單時為 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定複審記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecifyFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y-指定複審
+'00'~'12'-複審名單的複審週期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -414,6 +439,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -508,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,12 +647,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -711,23 +764,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -763,23 +799,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -955,25 +974,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="18" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="17" customWidth="1"/>
-    <col min="5" max="6" width="5.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" style="17" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="7"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
@@ -988,7 +1007,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
@@ -1001,7 +1020,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
@@ -1016,7 +1035,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
@@ -1027,7 +1046,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1057,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1068,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
@@ -1060,7 +1079,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <v>1</v>
       </c>
@@ -1099,8 +1118,11 @@
       <c r="E9" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="99" x14ac:dyDescent="0.25">
+      <c r="G9" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -1117,10 +1139,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>3</v>
       </c>
@@ -1138,7 +1160,7 @@
       </c>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>4</v>
       </c>
@@ -1156,7 +1178,7 @@
       </c>
       <c r="G12" s="26"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>5</v>
       </c>
@@ -1176,7 +1198,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>6</v>
       </c>
@@ -1196,7 +1218,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>7</v>
       </c>
@@ -1214,7 +1236,7 @@
       </c>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>8</v>
       </c>
@@ -1232,7 +1254,7 @@
       </c>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>9</v>
       </c>
@@ -1253,7 +1275,7 @@
       </c>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>10</v>
       </c>
@@ -1271,7 +1293,7 @@
       </c>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>11</v>
       </c>
@@ -1291,7 +1313,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>12</v>
       </c>
@@ -1311,7 +1333,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>13</v>
       </c>
@@ -1331,7 +1353,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>14</v>
       </c>
@@ -1342,7 +1364,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E22" s="29">
         <v>10</v>
@@ -1351,85 +1373,104 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+    <row r="23" spans="1:7" s="41" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="39">
+        <v>2</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
         <v>15</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C24" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="27">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="E24" s="36">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
         <v>16</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C25" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="E25" s="29"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
         <v>17</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D26" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>18</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="24">
+        <v>19</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
-        <v>18</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
-        <v>19</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="29">
+      <c r="E28" s="29">
         <v>6</v>
       </c>
     </row>
@@ -1450,23 +1491,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="93.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="93.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1477,7 +1518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -1488,12 +1529,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>79</v>
@@ -1507,21 +1548,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C232C9-7746-42B7-8D58-092C8AD1A443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>73</v>
       </c>
@@ -1532,7 +1573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>

--- a/DbLayouts/L5-管理性作業/InnReCheck.xlsx
+++ b/DbLayouts/L5-管理性作業/InnReCheck.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECB3E59-4770-479C-92AB-9DA9E1C90FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -324,45 +325,84 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>01-個金3000萬以上
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定複審記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecifyFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01-個金3000萬以上
 02-企金3000萬以上
 03-個金2000萬以上小於3000萬
 04-個金100萬以上小於2000萬
 05-企金未達3000萬
 06-土地追蹤
-99-指定複審名單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定複審名單時為 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定複審記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecifyFg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y-指定複審
-'00'~'12'-複審名單的複審週期</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>99-指定複審名單</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定覆審名單為第一次覆審年月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追蹤年月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraceMonth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定覆審週期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00'~'12'-複審名單的複審週期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y-指定覆審 null-非指定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FollowMark=2時輸入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定複審名單時為 0 紅字部分2021/11/5審查會議修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -540,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,6 +677,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -649,31 +707,19 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -764,6 +810,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -799,6 +862,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -974,11 +1054,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -988,15 +1068,15 @@
     <col min="3" max="3" width="28" style="18" customWidth="1"/>
     <col min="4" max="4" width="26.21875" style="17" customWidth="1"/>
     <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
+    <col min="7" max="7" width="59.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1008,8 +1088,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1021,10 +1101,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="12" t="s">
         <v>55</v>
       </c>
@@ -1036,10 +1116,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1047,10 +1127,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1058,10 +1138,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1069,10 +1149,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1118,8 +1198,8 @@
       <c r="E9" s="16">
         <v>6</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>85</v>
+      <c r="G9" s="37" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
@@ -1139,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,7 +1314,9 @@
       <c r="E15" s="16">
         <v>6</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="33" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
@@ -1373,28 +1455,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="41" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="38" t="s">
+    <row r="23" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>15</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="39">
+      <c r="D23" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="34">
         <v>2</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="38" t="s">
-        <v>88</v>
+      <c r="F23" s="35"/>
+      <c r="G23" s="33" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>19</v>
@@ -1405,72 +1489,114 @@
       <c r="D24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="32">
         <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
-        <v>16</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="G25" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="32">
+        <v>6</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="37" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
-        <v>17</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="29">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="32">
+        <v>2</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="43" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>44</v>
       </c>
       <c r="E27" s="29"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
+        <v>21</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
+        <v>22</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D30" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E30" s="29">
         <v>6</v>
       </c>
     </row>
@@ -1491,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1548,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DbLayouts/L5-管理性作業/InnReCheck.xlsx
+++ b/DbLayouts/L5-管理性作業/InnReCheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECB3E59-4770-479C-92AB-9DA9E1C90FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8499E23-0CB2-40E9-99BD-19C878DE99B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1836" yWindow="348" windowWidth="20940" windowHeight="10884" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -397,6 +397,14 @@
   <si>
     <t>指定複審名單時為 0 紅字部分2021/11/5審查會議修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findTraceMonth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraceMonth &gt;= ,AND TraceMonth &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -695,6 +703,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -706,15 +723,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1057,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1073,10 +1081,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1088,8 +1096,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1101,10 +1109,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="12" t="s">
         <v>55</v>
       </c>
@@ -1116,10 +1124,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1127,10 +1135,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1138,10 +1146,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1149,10 +1157,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1500,10 +1508,10 @@
       <c r="B25" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="40" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="32">
@@ -1518,20 +1526,20 @@
       <c r="A26" s="24">
         <v>18</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="38" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="40" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="32">
         <v>2</v>
       </c>
       <c r="F26" s="35"/>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="39" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1618,9 +1626,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -1663,6 +1671,17 @@
         <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>79</v>
       </c>
     </row>

--- a/DbLayouts/L5-管理性作業/InnReCheck.xlsx
+++ b/DbLayouts/L5-管理性作業/InnReCheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8499E23-0CB2-40E9-99BD-19C878DE99B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89A8D2E-BE26-40D8-88B5-09EE0B2155A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1836" yWindow="348" windowWidth="20940" windowHeight="10884" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -341,77 +341,80 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>指定覆審名單為第一次覆審年月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追蹤年月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraceMonth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y-指定覆審 null-非指定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FollowMark=2時輸入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定複審名單時為 0 紅字部分2021/11/5審查會議修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findTraceMonth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraceMonth &gt;= ,AND TraceMonth &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findSpecify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionCode =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionCode = ,AND CustNo=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findSpecifyNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">01-個金3000萬以上
+      <t>01-個金3000萬以上
 02-企金3000萬以上
-03-個金2000萬以上小於3000萬
-04-個金100萬以上小於2000萬
+03-個金2000萬以上小於3000萬、指定複審&lt;&gt;01,02,05,06
+04-個金100萬以上小於2000萬(新件)
 05-企金未達3000萬
 06-土地追蹤
-</t>
+99</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>99-指定複審名單</t>
+      <t>-指定複審名單</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定覆審名單為第一次覆審年月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>追蹤年月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TraceMonth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cycle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定覆審週期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>00'~'12'-複審名單的複審週期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y-指定覆審 null-非指定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FollowMark=2時輸入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定複審名單時為 0 紅字部分2021/11/5審查會議修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findTraceMonth</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TraceMonth &gt;= ,AND TraceMonth &lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -494,6 +497,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -588,7 +597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,9 +714,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1063,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1081,10 +1087,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1096,8 +1102,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1109,10 +1115,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="12" t="s">
         <v>55</v>
       </c>
@@ -1124,10 +1130,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1135,10 +1141,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1146,10 +1152,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1157,10 +1163,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1207,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
@@ -1227,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1323,7 +1329,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1481,7 +1487,7 @@
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="33" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1506,12 +1512,12 @@
         <v>17</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="32">
@@ -1519,92 +1525,71 @@
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="37" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
-        <v>18</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="32">
-        <v>2</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="39" t="s">
-        <v>92</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="G27" s="26"/>
+        <v>82</v>
+      </c>
+      <c r="E27" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="29">
-        <v>6</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="29"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
-        <v>22</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E29" s="29">
         <v>6</v>
       </c>
     </row>
@@ -1626,11 +1611,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1676,12 +1661,34 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>79</v>
       </c>
     </row>
